--- a/VisualParameters.xlsx
+++ b/VisualParameters.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pwcindia-my.sharepoint.com/personal/mehvash_k_khan_pwc_com/Documents/Documents/NLPtoDashB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehvash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{33953A53-B5FC-41D9-B85A-91FC65861627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ADEE891-908B-4E27-BAA9-34EA769FB1AF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72F5B969-3C0A-4D8C-9DE4-B0CC4F67E7C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>tableEx</t>
   </si>
@@ -134,70 +133,119 @@
     <t>Backend Parameter</t>
   </si>
   <si>
-    <t xml:space="preserve"> [columns] ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [fields],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Data],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Value, Trend axis, target],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Value, Minimum value, Maximum value, Target value],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Category, Details, Values],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Location, legend, Latitude, Longitude, bubble size],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Legend, values, details],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Values, X-axis, Y-axis, Legend],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Category, Values],</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [Category, Breakdown, Y-axis],</t>
   </si>
   <si>
-    <t xml:space="preserve"> [X-Axis, Y-Axis, Legend, Small multiples],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [X-axis, Column y-axis, Line y-axis, column legend, small multiples],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [X-Axis, Y-Axis, Secondary Y-axis, Legend, Small multiples],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Rows, Columns, Values],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Analyze, Explain by],</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [Analyze, Explain by, Expand by]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [Location, legend, Latitude, Longitude],</t>
+    <t>[values]</t>
+  </si>
+  <si>
+    <t>[Y, Category, Series, Rows]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Rows, Columns, Values]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Analyze, Explain by]</t>
+  </si>
+  <si>
+    <t>[Category, Y, Series, Rows]</t>
+  </si>
+  <si>
+    <t>[Category, Y, Y2, Series, Rows]</t>
+  </si>
+  <si>
+    <t>[Group, Details, Values]</t>
+  </si>
+  <si>
+    <t>[Category, Series, Y, X]</t>
+  </si>
+  <si>
+    <t>[Category, Series, Y, X, Size]</t>
+  </si>
+  <si>
+    <t>[Category, Y, Series, Tooltips]</t>
+  </si>
+  <si>
+    <t>[Category, X, Y, Series]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Values, X-axis, Y-axis, Legend]</t>
+  </si>
+  <si>
+    <t>[Category,Y]</t>
+  </si>
+  <si>
+    <t>[Indicator, TrendLine, Goal]</t>
+  </si>
+  <si>
+    <t>[Y, MinValue, MaxValue, TargetValue]</t>
+  </si>
+  <si>
+    <t>[Category, Y, Series]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [columns]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [fields]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Data]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Value, Trend axis, target]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Value, Minimum value, Maximum value, Target value]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Location, legend, Latitude, Longitude]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Category, Details, Values]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Location, legend, Latitude, Longitude, bubble size]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Legend, values, details]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Category, Values]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Category, Breakdown, Y-axis]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [X-Axis, Y-Axis, Legend, Small multiples]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [X-axis, Column y-axis, Line y-axis, column legend, small multiples]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [X-Axis, Y-Axis, Secondary Y-axis, Legend, Small multiples]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,8 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,264 +605,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937BC77F-D573-4E05-9F3E-440C10931056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>